--- a/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
+++ b/InputData/elec/FoSYCRpUNL/Frac of Start Year Cap Ret per Unit Net Loss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\FoSYCRpUNL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\FoSYCRpUNL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DFE4BFB-8694-4AD5-BAC6-9E0AA280B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D11D6C-1D75-4323-AE84-84EA22FCED8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{67B50A2A-83E2-40E1-A966-DC033ADD8EBF}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B7A547-DAFD-4CBC-90C6-A86A1413C282}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -565,8 +565,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -771,8 +771,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <f>B4</f>
-        <v>1.2500000000000001E-2</v>
+        <v>2E-3</v>
       </c>
     </row>
   </sheetData>
